--- a/Assets/Saito/Resources/Data/Nalation.xlsx
+++ b/Assets/Saito/Resources/Data/Nalation.xlsx
@@ -38,11 +38,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>北のバイク集団"パーシング"を撃破したヒューたちは勢いに乗って
-彼らと敵対していたという南のヘリコプター集団"ファイアフライ"の撃滅を狙う</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ついにローマニアの敵を撃破したヒューたち
 ハイランドへ向かうため、吹き溜まりの街の坑道の中へ進む
 上と下を繋ぐ唯一の道
@@ -89,6 +84,12 @@
     <rPh sb="23" eb="25">
       <t>ゲキハ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北のバイク集団"パーシング"を撃破したヒューたちは
+勢いに乗って彼らと敵対していたという
+南のヘリコプター集団"ファイアフライ"の撃滅を狙う</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -431,7 +432,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -441,12 +442,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="56.25" x14ac:dyDescent="0.4">
@@ -454,19 +455,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
